--- a/weightingschema.xlsx
+++ b/weightingschema.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itcn.sharepoint.com/sites/InnovationogEntreprenrskab/Delte dokumenter/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Eadania\Team4-volunteers-project\Team1-MovingToDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_0C1AA5F6AAB0157E660E1CDB0095B8B63A73F9C3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F7C0990-3FBF-4526-AD0E-BDDCAE4F620D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C42043-AE97-4C4B-88EE-75F0B9BC2F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Frivillige" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +172,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,16 +500,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.95">
+    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,42 +544,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" customHeight="1">
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="8"/>
       <c r="J3">
         <v>3</v>
       </c>
@@ -587,28 +587,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="8"/>
       <c r="J4">
         <v>5</v>
       </c>
@@ -616,28 +616,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="8"/>
       <c r="J5">
         <v>3</v>
       </c>
@@ -645,36 +645,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
         <v>75</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="8"/>
       <c r="J7">
         <v>5</v>
       </c>
@@ -682,28 +682,28 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="8"/>
       <c r="J8">
         <v>5</v>
       </c>
@@ -711,36 +711,36 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="C9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="8"/>
       <c r="J10">
         <v>3</v>
       </c>
@@ -748,28 +748,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="8"/>
       <c r="J11">
         <v>1</v>
       </c>
@@ -777,28 +777,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="8"/>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="8"/>
       <c r="J12">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -814,17 +814,17 @@
         <f>SUM(B2:B12)</f>
         <v>100</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="8"/>
       <c r="E13">
         <f ca="1">SUM(E2:E13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="8"/>
       <c r="H13">
         <f>SUM(H3:H12)</f>
         <v>270</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="4">
         <f>SUM(J3:J12)</f>
         <v>26</v>
@@ -851,19 +851,19 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="57.95">
+    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,39 +898,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.45" customHeight="1">
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="8"/>
       <c r="J3">
         <v>3</v>
       </c>
@@ -938,25 +938,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="8"/>
       <c r="J4">
         <v>5</v>
       </c>
@@ -964,25 +964,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="8"/>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="8"/>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="8"/>
       <c r="J5">
         <v>3</v>
       </c>
@@ -990,33 +990,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8"/>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
         <v>75</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="8"/>
       <c r="J7">
         <v>5</v>
       </c>
@@ -1024,25 +1024,25 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="8"/>
       <c r="J8">
         <v>5</v>
       </c>
@@ -1050,33 +1050,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="C9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="8"/>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="8"/>
       <c r="J10">
         <v>3</v>
       </c>
@@ -1084,25 +1084,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="8"/>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="8"/>
       <c r="J11">
         <v>1</v>
       </c>
@@ -1110,25 +1110,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="8"/>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="8"/>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="8"/>
       <c r="J12">
         <v>1</v>
       </c>
@@ -1136,27 +1136,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <f>SUM(B2:B12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="E13" s="8">
-        <f ca="1">SUM(E2:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="H13" s="8">
+      <c r="C13" s="8"/>
+      <c r="E13" s="6">
+        <f>SUM(E3:E12)</f>
+        <v>350</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="H13" s="6">
         <f>SUM(H3:H12)</f>
         <v>270</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <f>SUM(K3:K12)</f>
         <v>360</v>
       </c>
@@ -1182,6 +1182,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BEB61B250DA34540BF30C8728CDCD2EC" ma:contentTypeVersion="7" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f5d87b85b07d5fb7b8f436450148e36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93d49aa9-84d5-4ce9-973e-148df4ab571b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e1a26b8ca29f28399b0631ec5a3047c" ns2:_="">
     <xsd:import namespace="93d49aa9-84d5-4ce9-973e-148df4ab571b"/>
@@ -1345,20 +1351,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE134EF2-001C-4D8A-96E3-91D829C10CAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE134EF2-001C-4D8A-96E3-91D829C10CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7F3DF7-B97D-45A6-8DFE-C6CE6918E08D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA70BBA-F679-44D2-85CC-3BFEC5940563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA70BBA-F679-44D2-85CC-3BFEC5940563}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7F3DF7-B97D-45A6-8DFE-C6CE6918E08D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93d49aa9-84d5-4ce9-973e-148df4ab571b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/weightingschema.xlsx
+++ b/weightingschema.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Eadania\Team4-volunteers-project\Team1-MovingToDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C42043-AE97-4C4B-88EE-75F0B9BC2F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{63C42043-AE97-4C4B-88EE-75F0B9BC2F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FF5B7A5-FDA5-452D-A320-E28D9B2C77C0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Frivillige" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Evaluation
 Criteria</t>
@@ -107,14 +107,45 @@
     <t>TOTAL:</t>
   </si>
   <si>
-    <t>Skal være billigt</t>
+    <t>Alternative 1: Inhouse development</t>
+  </si>
+  <si>
+    <t>Alternative 2: 
+Partial inhouse development</t>
+  </si>
+  <si>
+    <t>Alternative 3: Outsourced development</t>
+  </si>
+  <si>
+    <t>Latency/Feedback time</t>
+  </si>
+  <si>
+    <t>Feature Creep</t>
+  </si>
+  <si>
+    <t>Refresh frequency</t>
+  </si>
+  <si>
+    <t>Price vs Quality</t>
+  </si>
+  <si>
+    <t>Development time</t>
+  </si>
+  <si>
+    <t>Implementation time</t>
+  </si>
+  <si>
+    <t>Intuitive GUI</t>
+  </si>
+  <si>
+    <t>Simplicity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +166,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED7D31"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -150,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -158,11 +204,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -173,13 +320,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,16 +677,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="72.599999999999994">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,42 +721,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3">
         <v>3</v>
       </c>
@@ -587,28 +764,28 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4">
         <v>5</v>
       </c>
@@ -616,28 +793,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5">
         <v>3</v>
       </c>
@@ -645,36 +822,36 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
         <v>75</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7">
         <v>5</v>
       </c>
@@ -682,28 +859,28 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8">
         <v>5</v>
       </c>
@@ -711,36 +888,36 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
       <c r="J10">
         <v>3</v>
       </c>
@@ -748,28 +925,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7"/>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11">
         <v>1</v>
       </c>
@@ -777,28 +954,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
         <v>15</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12">
         <v>1</v>
       </c>
@@ -806,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -814,17 +991,17 @@
         <f>SUM(B2:B12)</f>
         <v>100</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
       <c r="E13">
         <f ca="1">SUM(E2:E13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="H13">
         <f>SUM(H3:H12)</f>
         <v>270</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4">
         <f>SUM(J3:J12)</f>
         <v>26</v>
@@ -848,318 +1025,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAA1927-40F7-473D-9575-0E2EE0ED236C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="60">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="C3" s="18"/>
+      <c r="D3" s="14">
+        <v>3</v>
+      </c>
+      <c r="E3" s="14">
+        <f>D3*B3</f>
         <v>30</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
+      <c r="F3" s="18"/>
+      <c r="G3" s="11">
+        <v>4</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3*B3</f>
+        <v>40</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="14">
+        <v>5</v>
+      </c>
+      <c r="K3" s="11">
+        <f>J3*B3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14">
+        <v>10</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E12" si="0">D4*B4</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" ref="H4:H12" si="1">G4*B4</f>
         <v>30</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="18"/>
+      <c r="J4" s="14">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K12" si="2">J4*B4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="14">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
+      <c r="F5" s="18"/>
+      <c r="G5" s="11">
+        <v>4</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11">
+        <v>4</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="14">
+        <v>4</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>75</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>75</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="14">
+        <v>5</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="11">
+        <v>4</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="15">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14">
+        <v>20</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="14">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="C12" s="18"/>
+      <c r="D12" s="14">
+        <v>4</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="11">
+        <v>5</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
+      <c r="I12" s="18"/>
+      <c r="J12" s="14">
+        <v>3</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>15</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="15">
         <f>SUM(B2:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="25">
         <f>SUM(E3:E12)</f>
-        <v>350</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="H13" s="6">
+        <v>405</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="24">
         <f>SUM(H3:H12)</f>
-        <v>270</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="6">
+        <v>415</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="26">
         <f>SUM(K3:K12)</f>
-        <v>360</v>
-      </c>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="G14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1173,21 +1424,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BEB61B250DA34540BF30C8728CDCD2EC" ma:contentTypeVersion="7" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="f5d87b85b07d5fb7b8f436450148e36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93d49aa9-84d5-4ce9-973e-148df4ab571b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e1a26b8ca29f28399b0631ec5a3047c" ns2:_="">
     <xsd:import namespace="93d49aa9-84d5-4ce9-973e-148df4ab571b"/>
@@ -1351,37 +1587,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE134EF2-001C-4D8A-96E3-91D829C10CAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7F3DF7-B97D-45A6-8DFE-C6CE6918E08D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA70BBA-F679-44D2-85CC-3BFEC5940563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACA70BBA-F679-44D2-85CC-3BFEC5940563}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F7F3DF7-B97D-45A6-8DFE-C6CE6918E08D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="93d49aa9-84d5-4ce9-973e-148df4ab571b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE134EF2-001C-4D8A-96E3-91D829C10CAB}"/>
 </file>